--- a/reference/static/files/part4_code.xlsx
+++ b/reference/static/files/part4_code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitBook\ECS\ecs@support\Contents_Lab\ECS\uploads_ecs\KM\reference\static\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Web\Git\ECS\KM\reference\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6694C8-A9B7-43A6-8820-65BFB9A8A000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDCB2C2-C3BC-42A8-A464-DA556CF03C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F137ACE5-7827-459B-B9AE-2F2B52AA52F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F137ACE5-7827-459B-B9AE-2F2B52AA52F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,54 +39,15 @@
     <t>1PART4</t>
   </si>
   <si>
-    <t>ของที่ส่งออกรวมทั้งของที่ส่งกลับออกไปซึ่งนำกลับเข้ามาภายในหนึ่งปีโดยไม่เปลี่ยนแปลงลักษณะหรือรูปแต่ประการใดและในเวลาที่ส่งออกนั้นได้รับใบสุทธิสำหรับนำกลับเข้ามาแล้วหมายเหตุอธิบดีกรมศุลกากรมีอำนาจที่จะสั่งให้ได้รับการยกเว้นจากบทบัญญัติที่ว่าด้วยใบสุทธิสำหรั</t>
-  </si>
-  <si>
     <t>2PART4</t>
   </si>
   <si>
-    <t>ก.ของที่ได้รับยกเว้นอากรตามประเภทนี้ให้ได้รับยกเว้นเพียงเท่าราคาหรือปริมาณแห่งของเดิมที่ส่งออกไปเท่านั้นสำหรับราคาหรือปริมาณที่เพิ่มขึ้นเนื่องจากการซ่อมให้เสียอากรตามพิกัดอัตราอากรของของเดิมที่ส่งออกไปซ่อมโดยคำนวณจากราคาหรือปริมาณที่เพิ่มขึ้นทั้งนี้ไม่รวม</t>
-  </si>
-  <si>
-    <t>ข.อธิบดีกรมศุลกากรมีอำนาจที่จะสั่งให้ได้รับการยกเว้นจากบทบัญญัติที่ว่ด้วยใบสุทธิสำหรับนำกลับเข้ามาหรืออาจอนุญาตให้ขยายกำหนดเวลาออกไปอีกตามความจำเป็นแก่กรณีได้</t>
-  </si>
-  <si>
     <t>3PART4</t>
   </si>
   <si>
-    <t>(ก)ของที่ใช้ในการแสดงละครหรือการแสดงอย่างอื่นที่คล้ายกันซึ่งผู้แสดงที่ท่องเที่ยวนำเข้ามา</t>
-  </si>
-  <si>
-    <t>(ข)เครื่องประกอบและของใช้ในการทดลองหรือการแสดงเพื่อวิทยาศาสตร์หรือการศึกษาซึ่งบุคคลที่เข้ามาในราชอาณาจักรเป็นการชั่วคราวนำเข้ามาเพื่อจัดการทดลองหรือแสดง</t>
-  </si>
-  <si>
-    <t>(ค)รถสำหรับเดินบนถนนเรือและอากาศยานบรรดาที่เจ้าของนำเข้ามาพร้อมกับตน</t>
-  </si>
-  <si>
-    <t>(ง)เครื่องถ่ายรูปและเครื่องบันทึกเสียงซึ่งบุคคลที่เข้ามาในราชอาณาจักรเป็นการชั่วคราวนำเข้ามาเพื่อใช้ถ่ายรูปหรือบันทึกเสียงต่างๆแต่ฟิล์มและแผ่นสำหรับถ่ายรูปหรือสิ่งที่ใช้บันทึกเสียงซึ่งนำมาใช้ในการนี้ต้องเป็นไปตามเงื่อนไขและปริมาณที่รัฐมนตรีว่าการกระทรวงกา</t>
-  </si>
-  <si>
-    <t>(จ)อาวุธปืนและกระสุนปืนซึ่งบุคคลที่เข้ามาในราชอาณาจักรเป็นการชั่วคราวนำเข้ามาพร้อมกับตน</t>
-  </si>
-  <si>
-    <t>(ฉ)ของที่นำเข้ามาเป็นการชั่วคราวโดยมุ่งหมายจะแสดงในงานสาธารณะที่เปิดให้ประชาชนดูได้ทั่วไป</t>
-  </si>
-  <si>
-    <t>(ช)ของที่นำเข้ามาเพื่อซ่อมแต่ต้องปฏิบัติภายในเงื่อนไขที่อธิบดีกรมศุลกากรกำหนด</t>
-  </si>
-  <si>
-    <t>(ซ)ตัวอย่างสินค้านอกจากที่ระบุไว้ในประเภทที่14ซึ่งบุคคลที่เข้ามาในราชอาณาจักรเป็นการชั่วคราวนำเข้ามาพร้อมตนและมีสภาพซึ่งเมื่อจะส่งกลับออกไปสามารถตรวจได้แน่นอนว่าเป็นของอันเดียวกับที่นำเข้ามาแต่ต้องมีปริมาณหรือค่าซึ่งเมื่อรวมกันเข้าแล้วไม่เกินกว่าที่จะเห็น</t>
-  </si>
-  <si>
-    <t>(ญ)เครื่องมือและสิ่งประกอบสำหรับงานก่อสร้างงานพัฒนาการรวมทั้งกิจการชั่วคราวอย่างอื่นตามที่อธิบดีกรมศุลกากรจะเห็นสมควรหมายเหตุเครื่องมือและสิ่งประกอบสำหรับงานก่อสร้างให้ได้รับยกเว้นเพียงเท่าเงินอากรที่จะพึงต้องเสียในขณะนำเข้าหักด้วยจำนวนเงินอากรที่คำนวณตาม</t>
-  </si>
-  <si>
     <t>4PART4</t>
   </si>
   <si>
-    <t>รางวัลและเหรียญตราที่ทางต่างประเทศมอบให้แก่บุคคลที่อยู่ในราชอาณาจักรเพื่อเป็นเกียรติในความดีเด่นทางศิลปะวรรณกรรมวิทยาศาสตร์การกีฬาหรือบริการสาธารณะหรือเพื่อเป็นเกียรติประวัติในความสำเร็จหรือพฤติกรรมอันเป็นสาธารณประโยชน์แต่เฉพาะรางวัลนั้นจะต้องอยู่ในดุลพิน</t>
-  </si>
-  <si>
     <t>5PART4</t>
   </si>
   <si>
@@ -99,15 +60,9 @@
     <t>6PART4</t>
   </si>
   <si>
-    <t>ของใช้ในบ้านเรือนที่ใช้แล้วที่เจ้าของนำเข้ามาพร้อมกับตนเนื่องในการย้ายภูมิลำเนาและมีจำนวนพอสมควรแก่ฐานะหมายเหตุของส่วนตัวและของใช้ในบ้านเรือนตามประเภทที่5และ6นั้นจะต้องนำเข้ามาถึงประเทศไทยไม่เกินหนึ่งเดือนก่อนที่ผู้นำของเข้าเข้ามาถึงหรือไม่เกินหกเดือนนับแ</t>
-  </si>
-  <si>
     <t>7PART4</t>
   </si>
   <si>
-    <t>ส่วนประกอบและอุปกรณ์ประกอบของอากาศยานหรือเรือรวมทั้งวัสดุที่นำเข้ามาเพื่อใช้ซ่อมหรือสร้างอากาศยานหรือเรือหรือส่วนของอากาศยานหรือเรือดังกล่าวหมายเหตุการยกเว้นอากรรวมทั้งของที่ได้รับยกเว้นอากรตามประเภทนี้ต้องเป็นไปตามหลักเกณฑ์และเงื่อนไขที่อธิบดีกรมศุลกากรก</t>
-  </si>
-  <si>
     <t>8PART4</t>
   </si>
   <si>
@@ -129,9 +84,6 @@
     <t>11PART4</t>
   </si>
   <si>
-    <t>นอกจากรถยนต์ตามประเภทที่8703.108703.218703.2228703.2298703.2328703.2398703.2428703.2498703.3128703.3198703.3228703.3298703.3328703.3398703.908704.2118704.311และ8704.901ในภาค2ของที่เป็นไปตามหลักเกณฑ์และเงื่อนไขที่อธิบดีกรมศุลกากรกำหนดด้วยความเห็นชอบของรัฐม</t>
-  </si>
-  <si>
     <t>12PART4</t>
   </si>
   <si>
@@ -159,15 +111,9 @@
     <t>16PART4</t>
   </si>
   <si>
-    <t>ของที่นำเข้ามาสำหรับคนพิการใช้โดยเฉพาะหรือใช้ในการฟื้นฟูสมรรถภาพคนพิการตามหลักเกณฑ์และเงื่อนไขที่อธิบดีกรมศุลกากรกำหนดด้วยความเห็นชอบของรัฐมนตรีว่าการกระทรวงการคลังหมายเหตุคำว่า"คนพิการ"และ"การฟื้นฟูสมรรถภาพคนพิการ"ให้เป็นไปตามกฎหมายว่าด้วยการฟื้นฟูสมรรถภ</t>
-  </si>
-  <si>
     <t>17PART4</t>
   </si>
   <si>
-    <t>ของที่พิสูจน์ให้เป็นที่พอใจของอธิบดีกรมศุลกากรหรือผู้ซึ่งอธิบดีกรมศุลกากรมอบหมายว่าเป็นของที่จำเป็นต้องนำเข้ามาเพื่อใช้ในการประชุมระหว่างประเทศและมีปริมาณพอสมควรแก่การนั้นทั้งนี้ผู้นำของเข้าจะต้องปฏิบัติตามหลักเกณฑ์และเงื่อนไขที่อธิบดีกรมศุลกากรหรือผู้ซึ่</t>
-  </si>
-  <si>
     <t>18PART4</t>
   </si>
   <si>
@@ -187,6 +133,62 @@
   </si>
   <si>
     <t>รายละเอียด</t>
+  </si>
+  <si>
+    <t>ของที่ส่งออกรวมทั้งของที่ส่งกลับออกไปซึ่งนำกลับเข้ามาภายในหนึ่งปีโดยไม่เปลี่ยนแปลงลักษณะหรือรูปแต่ประการใดและในเวลาที่ส่งออกนั้นได้รับใบสุทธิสำหรับนำกลับเข้ามาแล้วหมายเหตุอธิบดีกรมศุลกากรมีอำนาจที่จะสั่งให้ได้รับการยกเว้นจากบทบัญญัติที่ว่าด้วยใบสุทธิสำหรับนำกลับเข้ามาแล้ว</t>
+  </si>
+  <si>
+    <t>ก. ของที่ได้รับยกเว้นอากรตามประเภทนี้ให้ได้รับยกเว้นเพียงเท่าราคาหรือปริมาณแห่งของเดิมที่ส่งออกไปเท่านั้นสำหรับราคาหรือปริมาณที่เพิ่มขึ้นเนื่องจากการซ่อมให้เสียอากรตามพิกัดอัตราอากรของของเดิมที่ส่งออกไปซ่อมโดยคำนวณจากราคาหรือปริมาณที่เพิ่มขึ้นทั้งนี้ไม่รวมค่าใช้จ่ายในการขนส่ง และการประกันภัย</t>
+  </si>
+  <si>
+    <t>ข. อธิบดีกรมศุลกากรมีอำนาจที่จะสั่งให้ได้รับการยกเว้นจากบทบัญญัติที่ว่ด้วยใบสุทธิสำหรับนำกลับเข้ามาหรืออาจอนุญาตให้ขยายกำหนดเวลาออกไปอีกตามความจำเป็นแก่กรณีได้</t>
+  </si>
+  <si>
+    <t>(ก) ของที่ใช้ในการแสดงละครหรือการแสดงอย่างอื่นที่คล้ายกันซึ่งผู้แสดงที่ท่องเที่ยวนำเข้ามา</t>
+  </si>
+  <si>
+    <t>(ข) เครื่องประกอบและของใช้ในการทดลองหรือการแสดงเพื่อวิทยาศาสตร์หรือการศึกษาซึ่งบุคคลที่เข้ามาในราชอาณาจักรเป็นการชั่วคราวนำเข้ามาเพื่อจัดการทดลองหรือแสดง</t>
+  </si>
+  <si>
+    <t>(ค) รถสำหรับเดินบนถนนเรือและอากาศยานบรรดาที่เจ้าของนำเข้ามาพร้อมกับตน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ง) เครื่องถ่ายรูปและเครื่องบันทึกเสียงซึ่งบุคคลที่เข้ามาในราชอาณาจักรเป็นการชั่วคราวนำเข้ามาเพื่อใช้ถ่ายรูปหรือบันทึกเสียงต่างๆแต่ฟิล์มและแผ่นสำหรับถ่ายรูปหรือสิ่งที่ใช้บันทึกเสียงซึ่งนำมาใช้ในการนี้ต้องเป็นไปตามเงื่อนไขและปริมาณที่รัฐมนตรีว่าการกระทรวงการคลังกำหนด </t>
+  </si>
+  <si>
+    <t>(จ) อาวุธปืนและกระสุนปืนซึ่งบุคคลที่เข้ามาในราชอาณาจักรเป็นการชั่วคราวนำเข้ามาพร้อมกับตน</t>
+  </si>
+  <si>
+    <t>(ฉ) ของที่นำเข้ามาเป็นการชั่วคราวโดยมุ่งหมายจะแสดงในงานสาธารณะที่เปิดให้ประชาชนดูได้ทั่วไป</t>
+  </si>
+  <si>
+    <t>(ช) ของที่นำเข้ามาเพื่อซ่อมแต่ต้องปฏิบัติภายในเงื่อนไขที่อธิบดีกรมศุลกากรกำหนด</t>
+  </si>
+  <si>
+    <t>(ซ) ตัวอย่างสินค้านอกจากที่ระบุไว้ในประเภทที่14ซึ่งบุคคลที่เข้ามาในราชอาณาจักรเป็นการชั่วคราวนำเข้ามาพร้อมตนและมีสภาพซึ่งเมื่อจะส่งกลับออกไปสามารถตรวจได้แน่นอนว่าเป็นของอันเดียวกับที่นำเข้ามาแต่ต้องมีปริมาณหรือค่าซึ่งเมื่อรวมกันเข้าแล้วไม่เกินกว่าที่จะเห็น</t>
+  </si>
+  <si>
+    <t>(ญ) เครื่องมือและสิ่งประกอบ สำหรับงานก่อสร้าง  ให้ได้รับยกเว้นเพียงเท่าเงินอากรที่จะพึงต้อง เสียในขณะนำเข้าหักด้วยจำนวนเงินอากรที่คำนวณตามระยะเวลาที่ของนั้นอยู่ในประเทศ ในอัตราร้อยละหนึ่งต่อเดือนของจำนวนเงินอากรที่จะพึงต้องเสียในขณะนำเข้า ในการคำนวณให้นับเศษของเดือนเป็นหนึ่งเดือน และจะต้องชำระอากรก่อนส่งกลับออกไป กับทั้งจะต้องปฏิบัติตามระเบียบที่อธิบดีกรมศุลกากรกำหนดด้วย</t>
+  </si>
+  <si>
+    <t>รางวัลและเหรียญตราที่ทางต่างประเทศมอบให้แก่บุคคลที่อยู่ในราชอาณาจักรเพื่อเป็นเกียรติในความดีเด่นทางศิลปะวรรณกรรมวิทยาศาสตร์การกีฬาหรือบริการสาธารณะหรือเพื่อเป็นเกียรติประวัติในความสำเร็จหรือพฤติกรรมอันเป็นสาธารณประโยชน์แต่เฉพาะรางวัลนั้นจะต้องอยู่ในดุลพินิจของอธิบดีกรมศุลกากร ที่จะพึงพิจารณาตามแต่จะเห็นสมควรอีกส่วนหนึ่งด้วย</t>
+  </si>
+  <si>
+    <t>ของใช้ในบ้านเรือนที่ใช้แล้วที่เจ้าของนำเข้ามาพร้อมกับตนเนื่องในการย้ายภูมิลำเนาและมีจำนวนพอสมควรแก่ฐานะหมายเหตุของส่วนตัวและของใช้ในบ้านเรือนตามประเภทที่5และ6นั้นจะต้องนำเข้ามาถึงประเทศไทยไม่เกินหนึ่งเดือนก่อนที่ผู้นำของเข้าเข้ามาถึงหรือไม่เกินหกเดือนนับแต่วันที่ผู้นำของเข้าเข้ามาถึง อธิบดีกรมศุลกากรมีอำนาจขยายกำหนดเวลาที่กล่าวข้างต้นได้เมื่อเห็นว่ามีพฤติการณ์พิเศษ</t>
+  </si>
+  <si>
+    <t>ส่วนประกอบและอุปกรณ์ประกอบของอากาศยานหรือเรือรวมทั้งวัสดุที่นำเข้ามาเพื่อใช้ซ่อมหรือสร้างอากาศยานหรือเรือหรือส่วนของอากาศยานหรือเรือดังกล่าวหมายเหตุการยกเว้นอากรรวมทั้งของที่ได้รับยกเว้นอากรตามประเภทนี้ต้องเป็นไปตามหลักเกณฑ์และเงื่อนไขที่อธิบดีกรมศุลกากรกำหนด ด้วยความเห็นชอบของรัฐมนตรีว่าการกระทรวงการคลัง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ของที่นำเข้ามาหรือส่งออกไปเพื่อบริจาคเป็นการสาธารณกุศลแก่ประชาชน โดยผ่านส่วนราชการหรือองค์การสาธารณกุศล หรือเป็นของที่นำเข้ามาเพื่อให้แก่ส่วนราชการหรือองค์การสาธารณกุศลที่เป็นไปตามหลักเกณฑ์และ เงื่อนไขที่อธิบดีกรมศุลกากรกำหนดด้วยความเห็นชอบของรัฐมนตรีว่าการกระทรวงการคลัง ทั้งนี้ไม่รวมถึง 
+ก. รถยนต์และยานยนต์ที่ออกแบบสำหรับขนส่งบุคคลไม่เกิน 9 คน รวมทั้งคนขับ เว้นแต่รถพยาบาล 
+ข. รถยนต์บรรทุกของชนิดแวนและชนิดปิกอัพและรถยนต์ที่มีลักษณะคล้ายกับรถดังกล่าวที่มีน้ำหนักรถรวมน้ำหนักบรรทุก (จี.วี.ดับบลิว) ไม่เกิน 5 ตัน และรถยนต์ดังกล่าวที่มีน้ำหนักรถรวมน้ำหนักบรรทุก (จี.วี.ดับบลิว)  เกิน 5 ตัน ที่มีเครื่องยนต์ที่มิใช่เครื่องยนต์สันดาปภายในแบบลูกสูบที่จุดระเบิด ด้วยการอัด (ดีเซลหรือกึ่งดีเซล) หรือที่จุดระเบิดด้วยประกายไฟ </t>
+  </si>
+  <si>
+    <t>ของที่นำเข้ามาสำหรับคนพิการใช้โดยเฉพาะหรือใช้ในการฟื้นฟูสมรรถภาพคนพิการตามหลักเกณฑ์และเงื่อนไขที่อธิบดีกรมศุลกากรกำหนดด้วยความเห็นชอบของรัฐมนตรีว่าการกระทรวงการคลังหมายเหตุคำว่า"คนพิการ"และ"การฟื้นฟูสมรรถภาพคนพิการ"ให้เป็นไปตามกฎหมายว่าด้วยการฟื้นฟูสมรรถภาพคนพิการ</t>
+  </si>
+  <si>
+    <t>ของที่พิสูจน์ให้เป็นที่พอใจของอธิบดีกรมศุลกากรหรือผู้ซึ่งอธิบดีกรมศุลกากรมอบหมายว่าเป็นของที่จำเป็นต้องนำเข้ามาเพื่อใช้ในการประชุมระหว่างประเทศและมีปริมาณพอสมควรแก่การนั้นทั้งนี้ผู้นำของเข้าจะต้องปฏิบัติตามหลักเกณฑ์และเงื่อนไขที่อธิบดีกรมศุลกากรหรือผู้ซึ่งอธิบดีกรมศุลกากรมอบหมายกำหนด</t>
   </si>
 </sst>
 </file>
@@ -290,15 +292,9 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,14 +305,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,364 +637,364 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="30.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="172.28515625" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="30.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="172.33203125" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="41.25" x14ac:dyDescent="0.9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="42" x14ac:dyDescent="1.1499999999999999">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.75">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="54" x14ac:dyDescent="0.75">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="54" x14ac:dyDescent="0.75">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="54" x14ac:dyDescent="0.75">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="81" x14ac:dyDescent="0.75">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="54" x14ac:dyDescent="0.75">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="81" x14ac:dyDescent="0.75">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="54" x14ac:dyDescent="0.75">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="54" x14ac:dyDescent="0.75">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="54" x14ac:dyDescent="0.75">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="135" x14ac:dyDescent="0.75">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="54" x14ac:dyDescent="0.75">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="54" x14ac:dyDescent="0.75">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="10" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="54" x14ac:dyDescent="0.75">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.6">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="54" x14ac:dyDescent="0.6">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="54" x14ac:dyDescent="0.6">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="54" x14ac:dyDescent="0.6">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="54" x14ac:dyDescent="0.6">
-      <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="54" x14ac:dyDescent="0.6">
-      <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A17" s="5">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="54" x14ac:dyDescent="0.6">
-      <c r="A18" s="5">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="54" x14ac:dyDescent="0.6">
-      <c r="A19" s="5">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="54" x14ac:dyDescent="0.6">
-      <c r="A20" s="5">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A21" s="5">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="B30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="54" x14ac:dyDescent="0.6">
-      <c r="A22" s="5">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5" t="s">
+    <row r="31" spans="1:3" ht="54" x14ac:dyDescent="0.75">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="81" x14ac:dyDescent="0.6">
-      <c r="A23" s="5">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A24" s="5">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A25" s="5">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A26" s="5">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="54" x14ac:dyDescent="0.6">
-      <c r="A27" s="5">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="54" x14ac:dyDescent="0.6">
-      <c r="A28" s="5">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="54" x14ac:dyDescent="0.6">
-      <c r="A29" s="5">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A30" s="5">
-        <v>28</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="54" x14ac:dyDescent="0.6">
-      <c r="A31" s="5">
-        <v>29</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
